--- a/IMPORTANT/BUNTY TOYS (DELHI).xlsx
+++ b/IMPORTANT/BUNTY TOYS (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME -  BUNTY TOYS</t>
-  </si>
-  <si>
-    <t>discount</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,50 +1146,42 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45138</v>
+        <v>45208</v>
       </c>
       <c r="B5" s="8">
-        <v>13403</v>
+        <v>30231</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45197</v>
-      </c>
-      <c r="G5" s="8">
-        <v>14166</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-45236</v>
+        <v>30231</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>45146</v>
+        <v>45209</v>
       </c>
       <c r="B6" s="8">
-        <v>45236</v>
+        <v>22299</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45197</v>
-      </c>
-      <c r="G6" s="8">
-        <v>44000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,19 +1189,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="16">
-        <v>473</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1304,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45197</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>58639</v>
+        <v>52530</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>58639</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1697,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>52530</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
